--- a/AccountUploader.xlsx
+++ b/AccountUploader.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eshen\Desktop\Github\thesisrepos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thesisrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260D84FE-E7EB-4623-92C5-4C0A2E6FC3B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1586F2-1E0C-43F3-B7DE-B8A718B02368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="2460" windowWidth="13485" windowHeight="13170" xr2:uid="{CF3B8B6A-48DF-458A-BA2D-AA7154E34A85}"/>
+    <workbookView xWindow="5055" yWindow="1980" windowWidth="17535" windowHeight="12120" xr2:uid="{CF3B8B6A-48DF-458A-BA2D-AA7154E34A85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Lastname</t>
   </si>
@@ -42,47 +42,137 @@
     <t>Position</t>
   </si>
   <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>ID_No</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Pogi</t>
+  </si>
+  <si>
+    <t>090193</t>
+  </si>
+  <si>
+    <t>149861</t>
+  </si>
+  <si>
     <t>Canulo</t>
   </si>
   <si>
-    <t>Jhon Carlo</t>
-  </si>
-  <si>
-    <t>STUDENT</t>
-  </si>
-  <si>
-    <t>ALAB</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Cabrera</t>
-  </si>
-  <si>
-    <t>Sierfred</t>
-  </si>
-  <si>
-    <t>ID_No</t>
-  </si>
-  <si>
-    <t>Program_ID</t>
+    <t>toks</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>090194</t>
+  </si>
+  <si>
+    <t>Laranjo</t>
+  </si>
+  <si>
+    <t>Den2x</t>
+  </si>
+  <si>
+    <t>Janzel</t>
+  </si>
+  <si>
+    <t>Belano</t>
+  </si>
+  <si>
+    <t>calunsag</t>
+  </si>
+  <si>
+    <t>Jomar</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>clav</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
+  <si>
+    <t>Program_Code</t>
+  </si>
+  <si>
+    <t>AB COM</t>
+  </si>
+  <si>
+    <t>BSED-FILIPINO</t>
+  </si>
+  <si>
+    <t>Academicyear_Code</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>alab</t>
+  </si>
+  <si>
+    <t>marvilowe</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>bscs</t>
+  </si>
+  <si>
+    <t>CLAVECILLA</t>
+  </si>
+  <si>
+    <t>FELMMARKRISH</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>DELA VICTORIA</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>FARMACION</t>
+  </si>
+  <si>
+    <t>049117</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,8 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFC768F-3BEC-409E-BB7D-AFDD69AE0AEB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,11 +530,12 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -458,61 +550,70 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1234</v>
+        <v>111111</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1234</v>
       </c>
-      <c r="F2">
-        <v>8</v>
+      <c r="F2" t="s">
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1235</v>
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1234</v>
       </c>
-      <c r="F3">
-        <v>8</v>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1326</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -521,19 +622,179 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1234</v>
       </c>
-      <c r="F4">
-        <v>13</v>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>123456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>999999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1234</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>160950</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>1234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>179452</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>1234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>1234</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>